--- a/biology/Botanique/Frédéric_Lisak/Frédéric_Lisak.xlsx
+++ b/biology/Botanique/Frédéric_Lisak/Frédéric_Lisak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Lisak</t>
+          <t>Frédéric_Lisak</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frédéric Lisak, né le 23 juin 1966[1], est un journaliste, écrivain et éditeur français. Aussi animateur nature, intervenant radio, spécialisé dans la nature et l’environnement, il est le créateur des éditions Plume de Carotte basées à Toulouse, fondées en 2001.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frédéric Lisak, né le 23 juin 1966, est un journaliste, écrivain et éditeur français. Aussi animateur nature, intervenant radio, spécialisé dans la nature et l’environnement, il est le créateur des éditions Plume de Carotte basées à Toulouse, fondées en 2001.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Lisak</t>
+          <t>Frédéric_Lisak</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir envisagé de devenir vétérinaire, passionné de faune et de flore, il est journaliste pendant 15 ans dans les spécialités de nature et d’environnement, notamment aux éditions Milan Presse.
 En 1998, il fonde la revue Tournesol, destinée aux enfants, basée sur la nature, le jardinage, proposant des activités et des dossiers pédagogiques. Malgré son succès, la revue s’arrêtera en 2001, faute d’un éditeur engageant les investissements nécessaires.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Lisak</t>
+          <t>Frédéric_Lisak</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mammifères des bois et des champs, Milan, 1996
 Plantes méditerranéennes, Milan, 1998
